--- a/biology/Zoologie/Robert_Galambos/Robert_Galambos.xlsx
+++ b/biology/Zoologie/Robert_Galambos/Robert_Galambos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Carl Galambos, né le 20 avril 1914 à Lorain (Ohio) et mort le 18 juin 2010 à La Jolla (San Diego, Californie), est un neurobiologiste et zoologiste américain.
 Ses travaux zoologiques, en collaboration avec Donald Griffin (1915-2003), ont porté sur l'écholocation chez les Chiroptères.
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Donald R. Griffin &amp; Robert Galambos, "Obstacle Avoidance by Flying Bats", Anatomical Record, Vol.78, 1940, p. 95.
 (en) Donald R. Griffin &amp; Robert Galambos, "The sensory basis of obstacle avoidance by flying bats", Journal of Experimental Zoology, Vol.86, No.3, April 1941, p. 481-506. DOI 10.1002/jez.1400860310
